--- a/Documentation/ADJ errors encountered.xlsx
+++ b/Documentation/ADJ errors encountered.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -163,12 +163,24 @@
       <t>DJ BANKING SOFTWARE GROUP</t>
     </r>
   </si>
+  <si>
+    <t>some parts in the product backlogs' priority levels were incorrect</t>
+  </si>
+  <si>
+    <t>One of the problems encountered was analysing and identifying on how to include the client part with the existing detailed class diagram which only involved the admin part. A bit of a hard time deciding on how to show the relationship and connect these two sides, the client and admin side, into one detailed class diagram.</t>
+  </si>
+  <si>
+    <t>Errors encountered regarding the separation of classes into different python files were quite a lot because it was a domino effect of revising each classes to link them with one another since from the first setup we had. Some had missing file imports and unknown modules or attributes along the way.</t>
+  </si>
+  <si>
+    <t>The update on the product backlog gave a confusion since the updated priority given for each tasks doesn’t make sense to the sprint assigned to it. The sprint number was removed from the table.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +236,12 @@
       <name val="Forte"/>
       <family val="4"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF111111"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -263,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,6 +290,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -328,49 +359,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,14 +451,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5757"/>
+      <color rgb="FFFF3737"/>
       <color rgb="FFB235F7"/>
       <color rgb="FF91A2B9"/>
       <color rgb="FF242424"/>
       <color rgb="FF1B1B1B"/>
       <color rgb="FFE035F7"/>
       <color rgb="FFFF33CC"/>
-      <color rgb="FFFF3737"/>
-      <color rgb="FFFF5757"/>
     </mruColors>
   </colors>
   <extLst>
@@ -713,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,15 +815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -765,7 +836,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -773,13 +844,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -833,7 +904,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -841,17 +912,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -859,17 +930,17 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>43110</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -877,13 +948,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="15">
         <v>43141</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -891,13 +962,45 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
+        <v>43169</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>43200</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>43291</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>43322</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
